--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4248332.08495624</v>
+        <v>4248332.084956241</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>749736.0393386403</v>
+        <v>1123863.172933599</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>682213.8818051494</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>37.35930701763399</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>36.80453676746945</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>131.8179123113443</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>56.49576810820454</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>310.4558168945067</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>257.0152846411282</v>
       </c>
     </row>
     <row r="6">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>49.38957925603693</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>110.2526535426571</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>347.4682560071305</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.4523652507634</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>139.6528551206848</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3522746327443673</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>119.4042217342639</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>191.2436893555328</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>124.4447746624708</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>9.490676875342382</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>89.65624888205974</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>55.05229336898933</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.15376960382148</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>139.3027454994314</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>41.83246227415211</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.788919853964</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329119</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346317</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329113</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885723</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287491</v>
       </c>
       <c r="U40" t="n">
         <v>218.1054622689367</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857224</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463316</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>27.26344796355567</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1073.534970481816</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C2" t="n">
-        <v>1073.534970481816</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="D2" t="n">
-        <v>1073.534970481816</v>
+        <v>1401.290064435879</v>
       </c>
       <c r="E2" t="n">
-        <v>1073.534970481816</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>662.5490656922086</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>244.5852575903955</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1837.140060718708</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1463.674302457628</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1073.534970481816</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1589.347031634719</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1220.384514694307</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>862.1188160875565</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>862.1188160875565</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1975.94687169884</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,13 +4650,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>272.8312459770189</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>272.8312459770189</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>272.8312459770189</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>272.8312459770189</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>272.8312459770189</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>103.8314457153513</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>616.7626674966796</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750362</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>272.8312459770189</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>272.8312459770189</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1352.258819987542</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>983.2963030471303</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>983.2963030471303</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2123.618989005894</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312744</v>
+        <v>2123.618989005894</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.858660051664</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y8" t="n">
-        <v>1738.858660051664</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>223.2349977106394</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>54.29881478273251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>54.29881478273251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>54.29881478273251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541695</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541695</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="X10" t="n">
-        <v>444.0275768541695</v>
+        <v>195.0064718412582</v>
       </c>
       <c r="Y10" t="n">
-        <v>223.2349977106394</v>
+        <v>195.0064718412582</v>
       </c>
     </row>
     <row r="11">
@@ -5027,31 +5027,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5063,7 +5063,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5072,10 +5072,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>920.9895230969821</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1689.357669489444</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N12" t="n">
-        <v>2033.878325127062</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V13" t="n">
-        <v>874.927113122792</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>585.5099430858313</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>585.5099430858313</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>364.7173639423012</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5264,25 +5264,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,25 +5358,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>452.5377573864724</v>
+        <v>334.288126757867</v>
       </c>
       <c r="M15" t="n">
-        <v>772.8730769161741</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.284655180325</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>970.8803081157661</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>716.1958199098792</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>426.7786498729187</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X16" t="n">
-        <v>426.7786498729187</v>
+        <v>781.8780707889955</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.7786498729187</v>
+        <v>656.1762782006411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690732</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409605</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748354</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742898</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769783</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373968</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805656</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.49815909844</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250802</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095315</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="L18" t="n">
-        <v>3141.672735963664</v>
+        <v>3114.716431007692</v>
       </c>
       <c r="M18" t="n">
-        <v>3601.695631462555</v>
+        <v>3566.418766731887</v>
       </c>
       <c r="N18" t="n">
-        <v>3601.695631462555</v>
+        <v>3896.28139439592</v>
       </c>
       <c r="O18" t="n">
-        <v>4271.159392765215</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="P18" t="n">
-        <v>4791.460014500962</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098066</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021844</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641231</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409488</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681287</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475754</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.9276637108</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1489.329728259577</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1265.544313049083</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1265.544313049083</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1265.544313049083</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>976.1271430121219</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>748.1375921141046</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>452.5377573864724</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>772.8730769161741</v>
+        <v>1478.300838660644</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.007103038344</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="C22" t="n">
-        <v>506.0709201104371</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D22" t="n">
-        <v>355.9542806981013</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5938,22 +5938,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>675.007103038344</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W22" t="n">
-        <v>675.007103038344</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="X22" t="n">
-        <v>675.007103038344</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.007103038344</v>
+        <v>877.6282916890001</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,13 +5981,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>2745.388427942953</v>
+        <v>465.390741891857</v>
       </c>
       <c r="L24" t="n">
-        <v>3359.285497699841</v>
+        <v>1079.287811648746</v>
       </c>
       <c r="M24" t="n">
-        <v>3666.605630979803</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N24" t="n">
-        <v>4011.126286617421</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O24" t="n">
-        <v>4680.59004792008</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P24" t="n">
-        <v>4680.59004792008</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>909.3712637033467</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>619.9540936663861</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>619.9540936663861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>619.9540936663861</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>138.7081686256434</v>
+        <v>232.3332043549318</v>
       </c>
       <c r="L27" t="n">
-        <v>752.6052383825321</v>
+        <v>479.0983322613959</v>
       </c>
       <c r="M27" t="n">
-        <v>962.9749888350548</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.386567099205</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>496.3514742750683</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>496.3514742750683</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>496.3514742750683</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488382</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>898.7925182488382</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W28" t="n">
-        <v>898.7925182488382</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X28" t="n">
-        <v>898.7925182488382</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y28" t="n">
-        <v>677.999939105308</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6458,7 +6458,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K30" t="n">
-        <v>138.7081686256434</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="L30" t="n">
-        <v>527.6233273400256</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="M30" t="n">
-        <v>1295.991473732487</v>
+        <v>3102.866305490902</v>
       </c>
       <c r="N30" t="n">
-        <v>2100.403051996638</v>
+        <v>3907.277883755053</v>
       </c>
       <c r="O30" t="n">
-        <v>2349.1564660806</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>3481.793971740468</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>3381.677879852602</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506728</v>
+        <v>3300.381331480307</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>3221.288328937955</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504515</v>
+        <v>3143.218472480086</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>3043.863241839947</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>2962.265324427932</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>2919.55082408992</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>2999.384087782174</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>3217.02006325513</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>3532.182679494604</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>3871.199993490131</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>4209.194673746023</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>4510.520222979764</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>4754.570558813792</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>4818.599560616159</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>4687.499641571751</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>4532.534317401298</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>4312.225769654897</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>4126.361372489051</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>3905.764293492131</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045208</v>
+        <v>3746.594833634155</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>3594.622345530666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>222.5746515181232</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L33" t="n">
-        <v>836.4717212750119</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M33" t="n">
-        <v>1539.62186189329</v>
+        <v>1184.755496649499</v>
       </c>
       <c r="N33" t="n">
-        <v>2344.033440157441</v>
+        <v>1514.618124313531</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E34" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504517</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6886,22 +6886,22 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,7 +6929,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6938,49 +6938,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L36" t="n">
-        <v>711.1141612171746</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M36" t="n">
-        <v>1314.479671120147</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.000326757765</v>
+        <v>1542.291338536857</v>
       </c>
       <c r="O36" t="n">
-        <v>2328.464088060424</v>
+        <v>2211.755099839516</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2394.398577452867</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,16 +7169,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2745.388427942954</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>2992.153555849417</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M39" t="n">
-        <v>3760.521702241879</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N39" t="n">
-        <v>4105.042357879497</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O39" t="n">
-        <v>4340.553951278545</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P39" t="n">
-        <v>4860.854573014292</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506724</v>
@@ -7318,7 +7318,7 @@
         <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,13 +7327,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649693</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,13 +7421,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207831</v>
@@ -7442,7 +7442,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>159.7664105127951</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>308.836094714855</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171746</v>
+        <v>555.601222621319</v>
       </c>
       <c r="M42" t="n">
-        <v>1031.449480746876</v>
+        <v>1323.969369013781</v>
       </c>
       <c r="N42" t="n">
-        <v>1835.861059011027</v>
+        <v>2128.380947277931</v>
       </c>
       <c r="O42" t="n">
-        <v>2505.324820313686</v>
+        <v>2407.921012496628</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>3481.793971740471</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>3381.677879852605</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>3300.38133148031</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>3221.288328937958</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>3143.218472480089</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>3043.86324183995</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>2962.265324427935</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>2919.550824089921</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>2999.384087782175</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>3217.020063255131</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>3532.182679494605</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>3871.199993490132</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>4209.194673746024</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>4510.520222979765</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>4754.570558813793</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>4818.59956061616</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>4687.499641571753</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>4532.534317401301</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>4312.2257696549</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>4126.361372489054</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>3905.764293492134</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>3746.594833634158</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>3594.622345530669</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,10 +7637,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,49 +7649,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>2334.498159098442</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2334.498159098442</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>2948.39522885533</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M45" t="n">
-        <v>3255.715362135292</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N45" t="n">
-        <v>3600.23601777291</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O45" t="n">
-        <v>4269.699779075569</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P45" t="n">
-        <v>4790.000400811316</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4085.456965641975</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>3916.520782714068</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>3766.404143301732</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>3766.404143301732</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4749.779469576119</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>4749.779469576119</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>4495.094981370232</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>4495.094981370232</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>4267.105430472215</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>4267.105430472215</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8781,16 +8781,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,19 +9006,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>365.0697788354063</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,28 +9243,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>145.8406085295278</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>49.47098517070259</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,7 +9723,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,13 +9732,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.07234609796774</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711641</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>3.409358277927822</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>299.0357339626373</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>380.4867428273215</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>21.27095140116329</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,7 +11151,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.42775844767338</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>94.99366304304456</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>94.13987868962398</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>188.4301331082609</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>56.77771376450943</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>163.5323599831055</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.6782105781158</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>7.131217147137733</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>118.1576000593756</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="8">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="F2" t="n">
         <v>762506.6664885326</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885329</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176771</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.725617677</v>
+        <v>800515.7256176769</v>
       </c>
       <c r="M2" t="n">
         <v>800515.7256176769</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.725617677</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.725617677</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885327</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759211</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
-        <v>787.793690575917</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759414</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758693</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759224</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189641</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189636</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,28 +26482,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
@@ -26522,13 +26522,13 @@
         <v>-11370.37084089668</v>
       </c>
       <c r="C6" t="n">
-        <v>578597.5083736478</v>
+        <v>578597.5083736479</v>
       </c>
       <c r="D6" t="n">
-        <v>578597.5083736478</v>
+        <v>578597.5083736477</v>
       </c>
       <c r="E6" t="n">
-        <v>144571.5103723437</v>
+        <v>144571.5103723438</v>
       </c>
       <c r="F6" t="n">
         <v>669731.5468492401</v>
@@ -26537,31 +26537,31 @@
         <v>669731.5468492399</v>
       </c>
       <c r="H6" t="n">
-        <v>669731.5468492403</v>
+        <v>669731.5468492401</v>
       </c>
       <c r="I6" t="n">
-        <v>669731.5468492397</v>
+        <v>669731.5468492404</v>
       </c>
       <c r="J6" t="n">
-        <v>493308.3276566473</v>
+        <v>493308.3276566471</v>
       </c>
       <c r="K6" t="n">
-        <v>625088.5267620424</v>
+        <v>625088.5267620428</v>
       </c>
       <c r="L6" t="n">
-        <v>679594.0388657553</v>
+        <v>679594.0388657551</v>
       </c>
       <c r="M6" t="n">
         <v>544793.0236319179</v>
       </c>
       <c r="N6" t="n">
-        <v>679594.0388657548</v>
+        <v>679594.0388657552</v>
       </c>
       <c r="O6" t="n">
-        <v>679594.038865755</v>
+        <v>679594.0388657552</v>
       </c>
       <c r="P6" t="n">
-        <v>669731.54684924</v>
+        <v>669731.5468492402</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>344.5710630546278</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>287.1182359968877</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>13.60313571158693</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>229.7861061337732</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>96.42022884720473</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>129.2226540149254</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>106.7813095857582</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>114.7824519154272</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>34.46211406513123</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>205.2998932193715</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>40.17912506125245</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.0687733901869</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,22 +28612,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -31130,7 +31130,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31379,25 +31379,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576417</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31841,28 +31841,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>184.7667241654894</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>319.6115048322624</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32078,19 +32078,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>7.17972669619391</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
@@ -32099,13 +32099,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946988</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>141.0985615850402</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>10.78379835447043</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,25 +32698,25 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>245.2687781552867</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,22 +33023,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>232.4121821352563</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>354.6287313488089</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
@@ -33047,13 +33047,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>160.5576291374071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>282.1585173815942</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>386.6816374632088</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,16 +33734,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -33755,16 +33755,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>150.6569265784262</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,22 +33971,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>31.20105213445675</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458549</v>
@@ -33995,13 +33995,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,25 +34208,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>253.4175236390291</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>394.9841349460419</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.474357262271084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>417.0526896890744</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>643.182534660244</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>222.4735343909618</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35747,7 +35747,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35899,13 +35899,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109119</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>464.6695914130218</v>
+        <v>456.2649855799941</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>359.8953622211689</v>
       </c>
       <c r="N21" t="n">
-        <v>358.7844606146907</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>371.8925761935063</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>182.0853788830418</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>94.57074316089728</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>212.4946974267906</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>392.8435946609921</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>139.5622729371498</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414415</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303323</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>710.2526672911904</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>285.773060519036</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,16 +37306,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>609.4601110131035</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>220.7524402282537</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>237.890498382877</v>
+        <v>282.4671269667418</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>63.18113035606998</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>119.4431162246988</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414415</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>742.9847972062621</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.56987091209866</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4248332.084956241</v>
+        <v>4321707.373942329</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1123863.172933599</v>
+        <v>574223.3964336438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051494</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7193824.901374979</v>
+        <v>7095547.126422321</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>37.35930701763399</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>41.85786711675774</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>56.49576810820454</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>246.1966463278931</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>257.0152846411282</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>110.2526535426571</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>183.0785058094094</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>122.4523652507634</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139.6528551206848</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>173.637167941063</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274039</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.9317268742384</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>149.0799667719507</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>124.4447746624708</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>40.56499391306522</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>165.6183461988018</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.05229336898933</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>109.1774172859895</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274086</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560543</v>
       </c>
     </row>
     <row r="27">
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>8.959399123748939</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>35.5972936710953</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.788919853964</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>69.38427382107402</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346317</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>97.68871717871843</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539627</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689372</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>127.1119195785035</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287491</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463316</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>5.879073348974748</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>38.99993108731791</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1759.555763042629</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C2" t="n">
-        <v>1759.555763042629</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1401.290064435879</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y2" t="n">
-        <v>1759.555763042629</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,13 +4652,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>616.7626674966796</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>327.5890571512475</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>327.5890571512475</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>218.1627947174721</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1022.045772924</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1022.045772924</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>663.7800743172493</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2123.618989005894</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2123.618989005894</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1750.153230744814</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1750.153230744814</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,10 +4892,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W10" t="n">
-        <v>195.0064718412582</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="X10" t="n">
-        <v>195.0064718412582</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y10" t="n">
-        <v>195.0064718412582</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5032,58 @@
         <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>1102.530591931885</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.288466700114</v>
+        <v>1422.865911461587</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.809122337732</v>
+        <v>1767.386567099205</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.272883640391</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>557.8041243279829</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>557.8041243279829</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>407.6874849156471</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>259.774391333254</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>259.774391333254</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1348.33044553573</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1124.545030325236</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>835.416391538794</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>557.8041243279829</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>557.8041243279829</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,22 +5290,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L15" t="n">
-        <v>334.288126757867</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M15" t="n">
-        <v>334.288126757867</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022018</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O15" t="n">
         <v>1808.163466324677</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>656.1762782006411</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>656.1762782006411</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.867621687013</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>781.8780707889955</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>656.1762782006411</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5503,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,13 +5530,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5592,25 +5594,25 @@
         <v>2334.498159098442</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250804</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K18" t="n">
-        <v>2500.819361250804</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="L18" t="n">
-        <v>3114.716431007692</v>
+        <v>2989.886306020688</v>
       </c>
       <c r="M18" t="n">
-        <v>3566.418766731887</v>
+        <v>3326.569534338269</v>
       </c>
       <c r="N18" t="n">
-        <v>3896.28139439592</v>
+        <v>3671.090189975887</v>
       </c>
       <c r="O18" t="n">
-        <v>4565.745155698579</v>
+        <v>4340.553951278546</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698579</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="Q18" t="n">
         <v>4860.854573014293</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028587</v>
@@ -5671,7 +5673,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5680,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1146.946415708952</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>892.2619275030652</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>892.2619275030652</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>892.2619275030652</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>892.2619275030652</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5777,22 +5779,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5832,25 +5834,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M21" t="n">
-        <v>1478.300838660644</v>
+        <v>1303.849659022847</v>
       </c>
       <c r="N21" t="n">
-        <v>1808.163466324677</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.9798268587604</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>527.0436439308535</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5917,7 +5919,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293934</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W22" t="n">
-        <v>933.2366688293934</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X22" t="n">
-        <v>933.2366688293934</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y22" t="n">
-        <v>877.6282916890001</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -5996,43 +5998,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>465.390741891857</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L24" t="n">
-        <v>1079.287811648746</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M24" t="n">
-        <v>1847.655958041207</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N24" t="n">
-        <v>2192.176613678825</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O24" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>616.038489229382</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>616.038489229382</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>465.9218498170462</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>465.9218498170462</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>319.0319023191358</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>616.038489229382</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>616.038489229382</v>
       </c>
     </row>
     <row r="26">
@@ -6203,46 +6205,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6266,7 +6268,7 @@
         <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6303,25 +6305,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>232.3332043549318</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>479.0983322613959</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1463.642810687059</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>217.8015809431353</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>217.8015809431353</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>217.8015809431353</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>217.8015809431353</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>217.8015809431353</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>217.8015809431353</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V28" t="n">
-        <v>1336.117678709276</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W28" t="n">
-        <v>1046.700508672316</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="X28" t="n">
-        <v>818.7109577742983</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="Y28" t="n">
-        <v>597.9183786307682</v>
+        <v>399.450045773375</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,19 +6463,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,25 +6490,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>2334.498159098441</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K30" t="n">
-        <v>2334.498159098441</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L30" t="n">
-        <v>2334.498159098441</v>
+        <v>2995.604202711266</v>
       </c>
       <c r="M30" t="n">
-        <v>3102.866305490902</v>
+        <v>3315.939522240968</v>
       </c>
       <c r="N30" t="n">
-        <v>3907.277883755053</v>
+        <v>3660.460177878586</v>
       </c>
       <c r="O30" t="n">
-        <v>4045.444533962831</v>
+        <v>4329.923939181245</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R30" t="n">
         <v>4860.854573014292</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3481.793971740468</v>
+        <v>560.7969603949465</v>
       </c>
       <c r="C31" t="n">
-        <v>3381.677879852602</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D31" t="n">
-        <v>3300.381331480307</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E31" t="n">
-        <v>3221.288328937955</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F31" t="n">
-        <v>3143.218472480086</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G31" t="n">
-        <v>3043.863241839947</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>2962.265324427932</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>2919.55082408992</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>2999.384087782174</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3217.02006325513</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3532.182679494604</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>3871.199993490131</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4209.194673746023</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4510.520222979764</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4754.570558813792</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4818.599560616159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4687.499641571751</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4532.534317401298</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>4312.225769654897</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>4126.361372489051</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W31" t="n">
-        <v>3905.764293492131</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X31" t="n">
-        <v>3746.594833634155</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y31" t="n">
-        <v>3594.622345530666</v>
+        <v>560.7969603949465</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6703,19 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6777,25 +6779,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1184.755496649499</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N33" t="n">
-        <v>1514.618124313531</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108336</v>
+        <v>3977.688260435254</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229679</v>
+        <v>3907.603135363462</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506732</v>
+        <v>3757.486495951126</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083211</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504517</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103133</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982977</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>4495.094981370232</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>4205.677811333271</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045214</v>
+        <v>3977.688260435254</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>3977.688260435254</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6959,28 +6961,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>877.4353633695368</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M36" t="n">
-        <v>1197.770682899239</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N36" t="n">
-        <v>1542.291338536857</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O36" t="n">
-        <v>2211.755099839516</v>
+        <v>1818.001057576792</v>
       </c>
       <c r="P36" t="n">
-        <v>2394.398577452867</v>
+        <v>2338.301679312539</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>3966.372044102668</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>3966.372044102668</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>3816.255404690333</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>4148.020508932908</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7153,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7199,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L39" t="n">
-        <v>618.8589595388348</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M39" t="n">
-        <v>939.1942790685366</v>
+        <v>956.424676098677</v>
       </c>
       <c r="N39" t="n">
-        <v>1743.605857332687</v>
+        <v>1760.836254362828</v>
       </c>
       <c r="O39" t="n">
-        <v>2023.248313029762</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P39" t="n">
-        <v>2543.548934765509</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7424,19 +7426,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>159.7664105127951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>308.836094714855</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>555.601222621319</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1323.969369013781</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N42" t="n">
-        <v>2128.380947277931</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O42" t="n">
-        <v>2407.921012496628</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2612.943493278838</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3481.793971740471</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C43" t="n">
-        <v>3381.677879852605</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>3300.38133148031</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>3221.288328937958</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>3143.218472480089</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>3043.86324183995</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>2962.265324427935</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>2919.550824089921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>2999.384087782175</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3217.020063255131</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3532.182679494605</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>3871.199993490132</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4209.194673746024</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4510.520222979765</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4754.570558813793</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4818.59956061616</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4687.499641571753</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>4532.534317401301</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>4312.2257696549</v>
+        <v>1381.902709191471</v>
       </c>
       <c r="V43" t="n">
-        <v>4126.361372489054</v>
+        <v>1381.902709191471</v>
       </c>
       <c r="W43" t="n">
-        <v>3905.764293492134</v>
+        <v>1381.902709191471</v>
       </c>
       <c r="X43" t="n">
-        <v>3746.594833634158</v>
+        <v>1153.913158293453</v>
       </c>
       <c r="Y43" t="n">
-        <v>3594.622345530669</v>
+        <v>1153.913158293453</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,28 +7633,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7670,10 +7672,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7691,7 +7693,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>618.8589595388348</v>
+        <v>313.6574596091984</v>
       </c>
       <c r="M45" t="n">
-        <v>1387.227105931296</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N45" t="n">
-        <v>2122.782055165496</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O45" t="n">
-        <v>2371.535469249458</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201016</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201016</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E46" t="n">
-        <v>213.9110074201016</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>859.1101172131499</v>
       </c>
     </row>
   </sheetData>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>239.6752719572132</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>145.8406085295278</v>
+        <v>29.65969195719106</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,22 +9488,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>49.47098517070259</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>239.6752719572135</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,10 +9737,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>319.2220929856641</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>349.387407661647</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>347.5455279636577</v>
       </c>
       <c r="O33" t="n">
-        <v>3.409358277927822</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,10 +10685,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>200.1403268751267</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>21.27095140116329</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>148.2056261846774</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>230.5572162355057</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11397,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>5.561841589139135</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>48.84084321165253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>94.13987868962398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>245.6723584855121</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>120.9046521377892</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>163.5323599831055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>57.31615117738808</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>139.9544292437872</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>131.6495274275325</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>97.86254727755382</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>48.74524546785074</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>19.32204306806564</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>280.3582790496026</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>29.89407122271366</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>179.5847222647769</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885329</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="H2" t="n">
         <v>762506.6664885326</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885329</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="J2" t="n">
         <v>762506.6664885326</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176771</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176769</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176769</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.725617677</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.725617677</v>
+        <v>762506.6664885328</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,7 +26401,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.19711258155959e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,43 +26420,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758172</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758147</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758661</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905759116</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758359</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23206.58093189634</v>
-      </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189636</v>
+        <v>787.7936905759136</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189636</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26473,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26488,25 +26490,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.37084089668</v>
+        <v>-11370.37084089679</v>
       </c>
       <c r="C6" t="n">
-        <v>578597.5083736479</v>
+        <v>578597.5083736478</v>
       </c>
       <c r="D6" t="n">
-        <v>578597.5083736477</v>
+        <v>578597.5083736478</v>
       </c>
       <c r="E6" t="n">
-        <v>144571.5103723438</v>
+        <v>144571.5103723441</v>
       </c>
       <c r="F6" t="n">
-        <v>669731.5468492401</v>
+        <v>669731.5468492399</v>
       </c>
       <c r="G6" t="n">
-        <v>669731.5468492399</v>
+        <v>669731.54684924</v>
       </c>
       <c r="H6" t="n">
         <v>669731.5468492401</v>
       </c>
       <c r="I6" t="n">
-        <v>669731.5468492404</v>
+        <v>669731.5468492401</v>
       </c>
       <c r="J6" t="n">
         <v>493308.3276566471</v>
       </c>
       <c r="K6" t="n">
-        <v>625088.5267620428</v>
+        <v>669731.5468492401</v>
       </c>
       <c r="L6" t="n">
-        <v>679594.0388657551</v>
+        <v>669731.5468492402</v>
       </c>
       <c r="M6" t="n">
-        <v>544793.0236319179</v>
+        <v>534930.5316154028</v>
       </c>
       <c r="N6" t="n">
-        <v>679594.0388657552</v>
+        <v>669731.5468492399</v>
       </c>
       <c r="O6" t="n">
-        <v>679594.0388657552</v>
+        <v>669731.5468492404</v>
       </c>
       <c r="P6" t="n">
-        <v>669731.5468492402</v>
+        <v>669731.5468492401</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26793,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>344.5710630546278</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>327.8732335617113</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>229.7861061337732</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>40.32635200869791</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>39.5380257591774</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>129.2226540149254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>4.732187490914384</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>114.7824519154272</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>198.8518642628523</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>205.2998932193715</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.17912506125245</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>112.885830395528</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29050,10 +29052,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-7.673861546209081e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-7.673861546209081e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29092,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31370,7 +31372,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31379,7 +31381,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31610,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31753,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,34 +31837,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>368.141541170442</v>
       </c>
       <c r="M12" t="n">
-        <v>319.6115048322624</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,7 +32074,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,25 +32083,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>7.17972669619391</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>148.5278971900335</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32710,7 +32712,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
         <v>526.796267130444</v>
@@ -32786,31 +32788,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2687781552867</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33026,19 +33028,19 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>232.4121821352563</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
@@ -33205,7 +33207,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S29" t="n">
         <v>76.0697047810465</v>
@@ -33260,31 +33262,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>282.1585173815942</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33497,19 +33499,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33655,7 +33657,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33679,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.0697047810465</v>
@@ -33737,10 +33739,10 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -33749,13 +33751,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>150.6569265784262</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -33980,16 +33982,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>417.6916212634869</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>31.20105213445675</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -34129,7 +34131,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34229,7 +34231,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34457,7 +34459,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>394.9841349460419</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34466,7 +34468,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35258,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35413,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>600.427506694027</v>
       </c>
       <c r="M12" t="n">
-        <v>643.182534660244</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>239.4656922197789</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>108.3335598738799</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>456.2649855799941</v>
+        <v>340.0840690076574</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8953622211689</v>
+        <v>472.0989270180151</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>371.8925761935063</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>108.3335598738802</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>94.57074316089728</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>177.0880590636458</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>210.8330278817728</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>139.5622729371498</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>216.2038158803244</v>
       </c>
       <c r="O33" t="n">
-        <v>285.773060519036</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686865</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>323.5710298279816</v>
@@ -37397,16 +37399,16 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>220.7524402282537</v>
+        <v>288.1533596602009</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>741.2626510914685</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.4671269667418</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>63.18113035606998</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>16.86391410134405</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>92.00283645563152</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>742.9847972062621</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>251.2660748322851</v>
@@ -38114,10 +38116,10 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4321707.373942329</v>
+        <v>4314690.359050618</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>574223.3964336438</v>
+        <v>685551.178554132</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>87.68060661386916</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>41.85786711675774</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>246.1966463278931</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>136.1916198885551</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>83.87322958494012</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>309.7029429582356</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G7" t="n">
-        <v>162.5776147681365</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>183.0785058094094</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>173.637167941063</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274039</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.9317268742384</v>
+        <v>3.633341602776479</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1660,10 +1660,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>183.1796758467005</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>122.65197883716</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>40.56499391306522</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>158.4251234088481</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>165.6183461988018</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>25.58923446922638</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>109.1774172859895</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560543</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>8.959399123748939</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>35.5972936710953</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>69.38427382107402</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>100.4879364842347</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68871717871843</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>127.1119195785035</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>85.59161276455727</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>5.879073348974748</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>38.99993108731791</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.603060210037</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>483.6273751527092</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>469.7039710913002</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>142.509251127303</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.202900274159</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.202900274159</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>2338.78921905797</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>2559.5817982015</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>2338.78921905797</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.5129866402885</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>549.649320534154</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>549.649320534154</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>138.6634157445464</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4606,13 +4606,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1349.6523186161</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1349.6523186161</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>959.5129866402885</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218.1627947174721</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>218.1627947174721</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>218.1627947174721</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>218.1627947174721</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
-        <v>218.1627947174721</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.1627947174721</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1022.045772924</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1022.045772924</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>663.7800743172493</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1408.645612988121</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>404.5912469122717</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>404.5912469122717</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5912469122717</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5023,67 +5023,67 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.530591931885</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M12" t="n">
-        <v>1422.865911461587</v>
+        <v>629.3975440735812</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.386567099205</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.8041243279829</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="C13" t="n">
-        <v>557.8041243279829</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="D13" t="n">
-        <v>407.6874849156471</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="E13" t="n">
-        <v>259.774391333254</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="F13" t="n">
-        <v>259.774391333254</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.210845262961</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.210845262961</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752260002</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X13" t="n">
-        <v>557.8041243279829</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y13" t="n">
-        <v>557.8041243279829</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,19 +5293,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171746</v>
+        <v>1003.751888060526</v>
       </c>
       <c r="M15" t="n">
-        <v>1031.449480746876</v>
+        <v>1003.751888060526</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022017</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O15" t="n">
         <v>1808.163466324677</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263799</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>2375.989236263799</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>2989.886306020688</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>3326.569534338269</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>3671.090189975887</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>4340.553951278546</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>710.6134626728254</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="C19" t="n">
-        <v>710.6134626728254</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6134626728254</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.921157035281</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1146.946415708952</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>892.2619275030652</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>892.2619275030652</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>892.2619275030652</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y19" t="n">
-        <v>892.2619275030652</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>836.471721275012</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1303.849659022847</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.370314660465</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.2699138005285</v>
+        <v>985.400123145958</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609669</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609669</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W22" t="n">
-        <v>818.7109577742983</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X22" t="n">
-        <v>818.7109577742983</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y22" t="n">
-        <v>597.9183786307682</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
     <row r="23">
@@ -5974,10 +5974,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6059,7 +6059,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
@@ -6071,22 +6071,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1031.449480746876</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.038489229382</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>616.038489229382</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>465.9218498170462</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>465.9218498170462</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>319.0319023191358</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6180,19 +6180,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>844.0280401273993</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>844.0280401273993</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X25" t="n">
-        <v>616.038489229382</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y25" t="n">
-        <v>616.038489229382</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,67 +6211,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,16 +6314,16 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1463.642810687059</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>217.8015809431353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>217.8015809431353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>217.8015809431353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>217.8015809431353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>217.8015809431353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>217.8015809431353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>874.927113122792</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>620.2426249169051</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>620.2426249169051</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X28" t="n">
-        <v>620.2426249169051</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>399.450045773375</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>2786.879505108311</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>2995.604202711266</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>3315.939522240968</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N30" t="n">
-        <v>3660.460177878586</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O30" t="n">
-        <v>4329.923939181245</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>4850.224560916992</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7969603949465</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>1009.579090436494</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>781.5895395384766</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>560.7969603949465</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6721,31 +6721,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1122.004430061687</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.046207783208</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.509969085868</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3977.688260435254</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C34" t="n">
-        <v>3907.603135363462</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D34" t="n">
-        <v>3757.486495951126</v>
+        <v>346.6331511883706</v>
       </c>
       <c r="E34" t="n">
-        <v>3609.573402368733</v>
+        <v>198.7200576059774</v>
       </c>
       <c r="F34" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4749.779469576119</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>4495.094981370232</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>4205.677811333271</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>3977.688260435254</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y34" t="n">
-        <v>3977.688260435254</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,10 +6940,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7022,19 +7022,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>904.39166832551</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1224.726987855212</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1569.24764349283</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1818.001057576792</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2338.301679312539</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3966.372044102668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3966.372044102668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3816.255404690333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.14914771935</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>4148.020508932908</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>4148.020508932908</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>4148.020508932908</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X37" t="n">
-        <v>4148.020508932908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4148.020508932908</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,73 +7150,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>222.5746515181232</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>956.424676098677</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1760.836254362828</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2430.300015665487</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1122.004430061687</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>972.2646934632137</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F43" t="n">
         <v>527.3450129705744</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1381.902709191471</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1381.902709191471</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>1381.902709191471</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X43" t="n">
-        <v>1153.913158293453</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y43" t="n">
-        <v>1153.913158293453</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7730,25 +7730,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>313.6574596091984</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1082.02560600166</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1886.437184265811</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2135.190598349773</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>1187.92115703528</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>898.5039869983195</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>898.5039869983195</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>859.1101172131499</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>239.6752719572132</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>29.65969195719106</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,19 +9728,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>239.6752719572135</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>319.2220929856641</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9971,13 +9971,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>349.387407661647</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>137.4682402278088</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>347.5455279636577</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10679,16 +10679,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>200.1403268751267</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10916,10 +10916,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11147,22 +11147,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>148.2056261846774</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>230.5572162355057</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>5.561841589139135</v>
+        <v>162.8602268606011</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>22.76906918577127</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>245.6723584855121</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>8.821697689779711</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>120.9046521377892</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>154.2427457127109</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.31615117738808</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9544292437872</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>131.6495274275325</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>97.86254727755382</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>44.93311153869659</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25131,7 +25131,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74524546785074</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>19.32204306806564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>81.65520833407057</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25842,10 +25842,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>280.3582790496026</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.5847222647769</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885329</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="G2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="J2" t="n">
         <v>762506.6664885326</v>
       </c>
       <c r="K2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="L2" t="n">
         <v>762506.6664885327</v>
@@ -26349,10 +26349,10 @@
         <v>762506.6664885324</v>
       </c>
       <c r="N2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="P2" t="n">
         <v>762506.6664885326</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.139180619</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.7936905758172</v>
+        <v>787.7936905759093</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758147</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758661</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759116</v>
+        <v>787.7936905759185</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758359</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905759136</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.37084089679</v>
+        <v>-11370.370840897</v>
       </c>
       <c r="C6" t="n">
-        <v>578597.5083736478</v>
+        <v>578597.5083736479</v>
       </c>
       <c r="D6" t="n">
-        <v>578597.5083736478</v>
+        <v>578597.5083736479</v>
       </c>
       <c r="E6" t="n">
-        <v>144571.5103723441</v>
+        <v>143596.9191126225</v>
       </c>
       <c r="F6" t="n">
-        <v>669731.5468492399</v>
+        <v>668756.9555895184</v>
       </c>
       <c r="G6" t="n">
-        <v>669731.54684924</v>
+        <v>668756.9555895183</v>
       </c>
       <c r="H6" t="n">
-        <v>669731.5468492401</v>
+        <v>668756.9555895185</v>
       </c>
       <c r="I6" t="n">
-        <v>669731.5468492401</v>
+        <v>668756.9555895185</v>
       </c>
       <c r="J6" t="n">
-        <v>493308.3276566471</v>
+        <v>492333.7363969254</v>
       </c>
       <c r="K6" t="n">
-        <v>669731.5468492401</v>
+        <v>668756.9555895185</v>
       </c>
       <c r="L6" t="n">
-        <v>669731.5468492402</v>
+        <v>668756.9555895185</v>
       </c>
       <c r="M6" t="n">
-        <v>534930.5316154028</v>
+        <v>533955.9403556812</v>
       </c>
       <c r="N6" t="n">
-        <v>669731.5468492399</v>
+        <v>668756.9555895184</v>
       </c>
       <c r="O6" t="n">
-        <v>669731.5468492404</v>
+        <v>668756.9555895184</v>
       </c>
       <c r="P6" t="n">
-        <v>669731.5468492401</v>
+        <v>668756.9555895184</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>64.25070963099209</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>327.8732335617113</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>40.32635200869791</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>89.51803550048206</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>329.9109404358549</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>39.5380257591774</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G7" t="n">
-        <v>4.732187490914384</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>198.8518642628523</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>112.885830395528</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.769894134013742e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -29052,10 +29052,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.673861546209081e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-7.673861546209081e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323551</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31372,7 +31372,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,25 +31594,25 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653282</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>368.141541170442</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>213.9849829127209</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,34 +32074,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>268.3650726135139</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>148.5278971900335</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,37 +32788,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,28 +33034,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,13 +33262,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -33283,16 +33283,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,25 +33411,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L32" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,28 +33508,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,22 +33973,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>417.6916212634869</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -33997,13 +33997,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,28 +34219,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,19 +34447,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34468,16 +34468,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>600.427506694027</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>537.5560127407025</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>500.6510381370989</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>108.3335598738799</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>340.0840690076574</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>472.0989270180151</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N24" t="n">
-        <v>108.3335598738802</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>177.0880590636458</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>210.8330278817728</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>6.126528144475494</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,22 +37156,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>216.2038158803244</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>288.1533596602009</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>741.2626510914685</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,19 +37867,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>16.86391410134405</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>92.00283645563152</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4314690.359050618</v>
+        <v>4319629.62189965</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>685551.178554132</v>
+        <v>626630.3370468663</v>
       </c>
     </row>
     <row r="8">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>301.0462453066053</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174115</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>108.013454095665</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>3.633341602776479</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>122.65197883716</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>158.4251234088481</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>105.0903281190973</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.58923446922638</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>33.35146980185857</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>100.4879364842347</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>234.1231749377856</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>85.59161276455727</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4840,16 +4840,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -5035,13 +5035,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5050,40 +5050,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,28 +5108,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L12" t="n">
-        <v>97.21709146028584</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M12" t="n">
-        <v>629.3975440735812</v>
+        <v>647.5155168583367</v>
       </c>
       <c r="N12" t="n">
         <v>1433.809122337732</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.8871334832924</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="C13" t="n">
-        <v>100.8871334832924</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="D13" t="n">
-        <v>100.8871334832924</v>
+        <v>353.2115380447265</v>
       </c>
       <c r="E13" t="n">
-        <v>100.8871334832924</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>100.8871334832924</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5244,7 +5244,7 @@
         <v>503.3281774570622</v>
       </c>
       <c r="Y13" t="n">
-        <v>282.5355983135321</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5360,13 +5360,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>1003.751888060526</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>1003.751888060526</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N15" t="n">
         <v>1808.163466324677</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,19 +5582,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
         <v>508.1073603047985</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>221.1079791745888</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>221.1079791745888</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>221.1079791745888</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>221.1079791745888</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5715,10 +5715,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>441.900558318119</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>221.1079791745888</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>985.400123145958</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
-        <v>825.3747459653033</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2581065529675</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W22" t="n">
-        <v>1387.841167119728</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X22" t="n">
-        <v>1387.841167119728</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y22" t="n">
-        <v>1167.048587976198</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="23">
@@ -5986,19 +5986,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6007,19 +6007,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
@@ -6056,19 +6056,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
         <v>508.1073603047985</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1387.841167119728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1167.048587976198</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,52 +6205,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324571</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>130.9054447954965</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6651,16 +6651,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028587</v>
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>496.7497906007063</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>346.6331511883706</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>198.7200576059774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7128,19 +7128,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954965</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7174,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7359,10 +7359,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
         <v>869.3083006011506</v>
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,28 +7435,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,22 +7478,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
         <v>1288.32563221405</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>613.8011874802282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W43" t="n">
-        <v>1244.231782352015</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X43" t="n">
-        <v>1016.242231453998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>795.449652310468</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8774,7 +8774,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>38.42050855090422</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>162.8602268606011</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>22.76906918577127</v>
+        <v>29.89407122271363</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>8.821697689779711</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>92.830481864506</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>154.2427457127109</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>192.3581855871786</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>82.39383318338571</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>44.93311153869659</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>18.01446838604238</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>81.65520833407057</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="10">
@@ -26319,16 +26319,16 @@
         <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="F2" t="n">
+        <v>762506.6664885328</v>
+      </c>
+      <c r="G2" t="n">
         <v>762506.6664885327</v>
-      </c>
-      <c r="F2" t="n">
-        <v>762506.6664885326</v>
-      </c>
-      <c r="G2" t="n">
-        <v>762506.6664885324</v>
       </c>
       <c r="H2" t="n">
         <v>762506.6664885327</v>
@@ -26343,16 +26343,16 @@
         <v>762506.6664885327</v>
       </c>
       <c r="L2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="M2" t="n">
         <v>762506.6664885327</v>
       </c>
-      <c r="M2" t="n">
-        <v>762506.6664885324</v>
-      </c>
       <c r="N2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="P2" t="n">
         <v>762506.6664885326</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.310193849552888e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759093</v>
+        <v>787.793690575952</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758902</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759185</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="K4" t="n">
-        <v>787.7936905758697</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.370840897</v>
+        <v>-11370.37084089688</v>
       </c>
       <c r="C6" t="n">
         <v>578597.5083736479</v>
       </c>
       <c r="D6" t="n">
-        <v>578597.5083736479</v>
+        <v>578597.5083736478</v>
       </c>
       <c r="E6" t="n">
-        <v>143596.9191126225</v>
+        <v>144474.0512463716</v>
       </c>
       <c r="F6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.0877232682</v>
       </c>
       <c r="G6" t="n">
-        <v>668756.9555895183</v>
+        <v>669634.0877232681</v>
       </c>
       <c r="H6" t="n">
-        <v>668756.9555895185</v>
+        <v>669634.0877232681</v>
       </c>
       <c r="I6" t="n">
-        <v>668756.9555895185</v>
+        <v>669634.0877232681</v>
       </c>
       <c r="J6" t="n">
-        <v>492333.7363969254</v>
+        <v>493210.8685306749</v>
       </c>
       <c r="K6" t="n">
-        <v>668756.9555895185</v>
+        <v>669634.0877232681</v>
       </c>
       <c r="L6" t="n">
-        <v>668756.9555895185</v>
+        <v>669634.087723268</v>
       </c>
       <c r="M6" t="n">
-        <v>533955.9403556812</v>
+        <v>534833.072489431</v>
       </c>
       <c r="N6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.0877232681</v>
       </c>
       <c r="O6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.0877232678</v>
       </c>
       <c r="P6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.0877232682</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809424</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>48.19472341080774</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28092,10 +28092,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.769894134013742e-13</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28152,10 +28152,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.493936519830316e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28338,16 +28338,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>139.4326257134861</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31849,10 +31849,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>213.9849829127209</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>446.235302870482</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -32080,16 +32080,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>268.3650726135139</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>245.1887948566921</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32970,7 +32970,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33183,7 +33183,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33204,7 +33204,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
@@ -33423,7 +33423,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041499</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
         <v>526.796267130444</v>
@@ -33660,7 +33660,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L35" t="n">
         <v>526.796267130444</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>224.6051223555644</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>323.920986939093</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35494,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>537.5560127407025</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>794.2359651307022</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>500.6510381370989</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>593.1894571169123</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36852,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349808</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>572.6057846157846</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
